--- a/biology/Zoologie/Duncanopsammia_axifuga/Duncanopsammia_axifuga.xlsx
+++ b/biology/Zoologie/Duncanopsammia_axifuga/Duncanopsammia_axifuga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Duncanopsammia axifuga est une espèce de corail dur à long polypes (LPS) de la famille des Dendrophylliidae, la seule du genre Duncanopsammia.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Duncanopsammia se caractérise par un squelette de type dendroïde, des polypes larges de 2 à 5 cm de diamètre munis de 14 tentacules. La bouche est au centre du polype. La reproduction se déroule par bourgeonnement à la base d'un polype, donnant naissance à un nouveau polype.
 C'est un corail hermatypique zooxanthellés. On peut néanmoins nourrir ce corail par distribution de plancton (artémias) ou de fragments de moules ou de crevettes.
@@ -543,7 +557,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Australie, Nouvelle-Guinée, Indonésie.
 </t>
@@ -574,7 +590,9 @@
           <t>En aquarium</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En aquarium, cette espèce n'est pas exigeante. Un brassage modéré est suffisant et l'éclairage modéré à fort est correct.
 </t>
